--- a/TestCase_1(Ермаков).xlsx
+++ b/TestCase_1(Ермаков).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toni_\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Михаил\OneDrive\Рабочий стол\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30D6306F-866C-47BB-A482-0A3039CF64CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3D29F9-ACC5-4846-899E-CA5F716363A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{CDEC5A32-6F61-4B20-A3A6-07024C58330C}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{CDEC5A32-6F61-4B20-A3A6-07024C58330C}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>Наименование:</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>Нажать кнопку "Login"</t>
+  </si>
+  <si>
+    <t>Ввод данных в поля приложения возможен, но из-за светлой темы устройства, на черном фоне не видны черные буквы</t>
   </si>
 </sst>
 </file>
@@ -791,9 +794,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office 2013–2022">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -831,7 +834,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -937,7 +940,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1079,7 +1082,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1089,22 +1092,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A90A06-6C0A-4B54-85CA-4442AB58039E}">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.73046875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1122,7 +1125,7 @@
       </c>
       <c r="H1" s="8"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="44"/>
       <c r="B2" s="46" t="s">
         <v>3</v>
@@ -1140,7 +1143,7 @@
       </c>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="45"/>
       <c r="B3" s="47"/>
       <c r="C3" s="49"/>
@@ -1149,10 +1152,12 @@
       <c r="F3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="14"/>
+      <c r="G3" s="14">
+        <v>1</v>
+      </c>
       <c r="H3" s="13"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="15"/>
       <c r="B4" s="3" t="s">
         <v>8</v>
@@ -1170,7 +1175,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -1180,7 +1185,7 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="15"/>
       <c r="B6" s="3" t="s">
         <v>10</v>
@@ -1192,7 +1197,7 @@
       <c r="G6" s="22"/>
       <c r="H6" s="20"/>
     </row>
-    <row r="7" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="17"/>
       <c r="B7" s="23" t="s">
         <v>11</v>
@@ -1206,7 +1211,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="17"/>
       <c r="B8" s="18" t="s">
         <v>13</v>
@@ -1220,7 +1225,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="18"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="17"/>
       <c r="B9" s="18" t="s">
         <v>15</v>
@@ -1234,7 +1239,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="18"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="17"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
@@ -1244,7 +1249,7 @@
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="25">
         <v>3</v>
       </c>
@@ -1270,7 +1275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="25.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="31" t="s">
         <v>19</v>
       </c>
@@ -1296,7 +1301,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="41.65" x14ac:dyDescent="0.45">
       <c r="A13" s="36">
         <v>1</v>
       </c>
@@ -1316,7 +1321,7 @@
       </c>
       <c r="H13" s="39"/>
     </row>
-    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="83.25" x14ac:dyDescent="0.45">
       <c r="A14" s="40">
         <v>2</v>
       </c>
@@ -1326,17 +1331,19 @@
       <c r="C14" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="38"/>
+      <c r="E14" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="41"/>
       <c r="F14" s="41"/>
       <c r="G14" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="42"/>
-    </row>
-    <row r="15" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="H14" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="83.25" x14ac:dyDescent="0.45">
       <c r="A15" s="40">
         <v>3</v>
       </c>

--- a/TestCase_1(Ермаков).xlsx
+++ b/TestCase_1(Ермаков).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Михаил\OneDrive\Рабочий стол\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3D29F9-ACC5-4846-899E-CA5F716363A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC9A722-F4F2-4450-A008-8ED75D0C65E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{CDEC5A32-6F61-4B20-A3A6-07024C58330C}"/>
   </bookViews>
@@ -129,9 +129,6 @@
     <t>Ввод данных в поля приложения возможен</t>
   </si>
   <si>
-    <t>Клиент получил информацию о том, что такой пользователь существует в БД, открыл главное окно и закрыл окно входа</t>
-  </si>
-  <si>
     <t>Ермаков Михаил Андревич</t>
   </si>
   <si>
@@ -141,7 +138,10 @@
     <t>Нажать кнопку "Login"</t>
   </si>
   <si>
-    <t>Ввод данных в поля приложения возможен, но из-за светлой темы устройства, на черном фоне не видны черные буквы</t>
+    <t>Вывод окна результата, клиент получил информацию о том, что такой пользователь существует в БД, открыл главное окно и закрыл окно входа</t>
+  </si>
+  <si>
+    <t>Клиент получил информацию о том, что такой пользователь существует в БД, открыл главное окно и закрыл окно входа, на черном фоне не видны черные буквы</t>
   </si>
 </sst>
 </file>
@@ -791,6 +791,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1283451</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>105850</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5CD239F-6E45-2D1F-4A70-F1AE8C8A4B24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="234090" y="4948158"/>
+          <a:ext cx="6546417" cy="4723053"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1090,10 +1139,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A90A06-6C0A-4B54-85CA-4442AB58039E}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="67" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="99" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1121,7 +1170,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H1" s="8"/>
     </row>
@@ -1163,7 +1212,7 @@
         <v>8</v>
       </c>
       <c r="C4" s="43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="6"/>
@@ -1321,7 +1370,7 @@
       </c>
       <c r="H13" s="39"/>
     </row>
-    <row r="14" spans="1:8" ht="83.25" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" ht="41.65" x14ac:dyDescent="0.45">
       <c r="A14" s="40">
         <v>2</v>
       </c>
@@ -1331,37 +1380,47 @@
       <c r="C14" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="41" t="s">
+      <c r="D14" s="38" t="s">
         <v>29</v>
       </c>
+      <c r="E14" s="41"/>
       <c r="F14" s="41"/>
       <c r="G14" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="83.25" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+      <c r="H14" s="42"/>
+    </row>
+    <row r="15" spans="1:8" ht="111" x14ac:dyDescent="0.45">
       <c r="A15" s="40">
         <v>3</v>
       </c>
       <c r="B15" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="38"/>
+      <c r="E15" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="41"/>
       <c r="F15" s="41"/>
       <c r="G15" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="42"/>
+        <v>36</v>
+      </c>
+      <c r="H15" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" s="40"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="41"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1370,5 +1429,6 @@
     <mergeCell ref="C2:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/TestCase_1(Ермаков).xlsx
+++ b/TestCase_1(Ермаков).xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Михаил\OneDrive\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toni_\Desktop\ВУЗ\ТМП\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC9A722-F4F2-4450-A008-8ED75D0C65E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A57397-208C-4D8C-94DF-CFCFE4DC9800}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{CDEC5A32-6F61-4B20-A3A6-07024C58330C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{CDEC5A32-6F61-4B20-A3A6-07024C58330C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="TestCase_1_Ермаков" sheetId="1" r:id="rId1"/>
+    <sheet name="Дефект" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="70">
   <si>
     <t>Наименование:</t>
   </si>
@@ -141,7 +142,115 @@
     <t>Вывод окна результата, клиент получил информацию о том, что такой пользователь существует в БД, открыл главное окно и закрыл окно входа</t>
   </si>
   <si>
-    <t>Клиент получил информацию о том, что такой пользователь существует в БД, открыл главное окно и закрыл окно входа, на черном фоне не видны черные буквы</t>
+    <t>Название</t>
+  </si>
+  <si>
+    <t>№ тест-кейса</t>
+  </si>
+  <si>
+    <t>Проект</t>
+  </si>
+  <si>
+    <t>Компонент</t>
+  </si>
+  <si>
+    <t>Статус</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>Номер версии</t>
+  </si>
+  <si>
+    <t>Важность:</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>Приоритет:</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Blocker</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Opened</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Retest</t>
+  </si>
+  <si>
+    <t>Minor</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>Trivial</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>Назначен на</t>
+  </si>
+  <si>
+    <t>Автор</t>
+  </si>
+  <si>
+    <t>Описание</t>
+  </si>
+  <si>
+    <t>Вложения</t>
+  </si>
+  <si>
+    <t>Черный текст на темном фоне</t>
+  </si>
+  <si>
+    <t>Ермаков Михаил Андреевич</t>
+  </si>
+  <si>
+    <t>Окно аутентификации</t>
+  </si>
+  <si>
+    <t>Меркулов Григорий Сергеевич</t>
+  </si>
+  <si>
+    <t>При выполнении шага 3 тест-кейса (нажатие кнопки "Login") обнаружена проблема: текст в окне результата отображается черным цветом на темном фоне, что делает его нечитаемым.
+Шаги для воспроизведения:
+Запустить приложение.
+Ввести логин user и пароль 123.
+Нажать кнопку Login.
+Фактический результат: Текст в окне не виден (черный на черном).
+Ожидаемый результат:
+Текст должен быть контрастным.
+Влияние:
+Дефект снижает удобство использования и нарушает accessibility-требования.</t>
+  </si>
+  <si>
+    <t>Проект по диспиплице "Технологии и методы программирования"</t>
+  </si>
+  <si>
+    <t>screen_defect1.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Клиент получил информацию о существовании клиент, но текст в окне нечитаем (черный на черном фоне).  </t>
   </si>
 </sst>
 </file>
@@ -151,7 +260,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\-mmm\-yyyy"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,8 +315,30 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,8 +357,14 @@
         <bgColor rgb="FFC0C0C0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="29">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -595,8 +732,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
@@ -626,8 +832,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -736,6 +946,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -748,8 +982,26 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="33">
     <cellStyle name="60% - Accent3 2" xfId="17" xr:uid="{E4F3E07C-B39A-4F95-97B1-C79B8AAB42DD}"/>
     <cellStyle name="60% — акцент3 2" xfId="5" xr:uid="{926ADCCF-C21A-4E5D-AE7B-7F5F09698AC2}"/>
     <cellStyle name="60% — акцент3 2 2" xfId="11" xr:uid="{323DF136-2C8C-42AE-B0CF-80E6DAF64339}"/>
@@ -763,6 +1015,7 @@
     <cellStyle name="Normal 4" xfId="19" xr:uid="{BBA716AF-D527-42AE-BFDF-0369F833BD36}"/>
     <cellStyle name="Normal 5" xfId="20" xr:uid="{BE68C93E-566E-44ED-B205-5B63A79BCC7A}"/>
     <cellStyle name="Normal 6" xfId="21" xr:uid="{7FF79D5B-A0DA-4C3A-BC3B-0C0DE4EB1662}"/>
+    <cellStyle name="Normal 6 2" xfId="32" xr:uid="{907ED0FF-16B5-4E5F-8C38-74795BA1D38B}"/>
     <cellStyle name="Normal 7" xfId="22" xr:uid="{5EDDD2FC-5E13-4639-8601-9599C00B2423}"/>
     <cellStyle name="Normal 8" xfId="23" xr:uid="{43491842-036E-40F8-B554-7AE26BEFC099}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -776,9 +1029,12 @@
     <cellStyle name="Обычный 2 4" xfId="13" xr:uid="{ED99188F-316E-48D3-BCD1-AA02C8008B77}"/>
     <cellStyle name="Обычный 3" xfId="3" xr:uid="{8E40C472-922C-42D1-A216-7D51908D07B0}"/>
     <cellStyle name="Обычный 4" xfId="6" xr:uid="{39E65A0E-8F6A-41F8-A713-2FF063B39340}"/>
+    <cellStyle name="Обычный 4 2" xfId="29" xr:uid="{BAE62505-416F-4408-AEF0-C0A131DE2163}"/>
     <cellStyle name="Обычный 5" xfId="7" xr:uid="{BDDDC9FB-5A0F-4E4C-8CE4-ABA8FDCFDAAE}"/>
     <cellStyle name="Обычный 6" xfId="12" xr:uid="{4261D00A-2A4C-4329-821F-92771508C357}"/>
+    <cellStyle name="Обычный 6 2" xfId="31" xr:uid="{B4F24AD7-D9B9-4357-88AB-3FECE0DCCC41}"/>
     <cellStyle name="Обычный 7" xfId="1" xr:uid="{FE16AF9B-8A63-47B4-876C-43134AF4D335}"/>
+    <cellStyle name="Обычный 7 2" xfId="30" xr:uid="{A0850FAD-2FE6-40CC-8BB5-0DC124BAB618}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -797,23 +1053,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>496957</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>182218</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1283451</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>105850</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>488838</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>154463</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Рисунок 3">
+        <xdr:cNvPr id="6" name="Рисунок 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5CD239F-6E45-2D1F-4A70-F1AE8C8A4B24}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13500CBE-C921-4D7F-AC31-73DEEE3F7D2A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -822,15 +1078,21 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="234090" y="4948158"/>
-          <a:ext cx="6546417" cy="4723053"/>
+          <a:off x="496957" y="6816588"/>
+          <a:ext cx="7106642" cy="5877745"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -843,9 +1105,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office 2013–2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -883,7 +1145,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -989,7 +1251,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1131,7 +1393,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1139,24 +1401,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A90A06-6C0A-4B54-85CA-4442AB58039E}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="99" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
+    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1174,12 +1436,12 @@
       </c>
       <c r="H1" s="8"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" s="44"/>
-      <c r="B2" s="46" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="52"/>
+      <c r="B2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="56" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="9"/>
@@ -1192,10 +1454,10 @@
       </c>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="45"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="49"/>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="53"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="57"/>
       <c r="D3" s="9"/>
       <c r="E3" s="10"/>
       <c r="F3" s="11" t="s">
@@ -1206,7 +1468,7 @@
       </c>
       <c r="H3" s="13"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="3" t="s">
         <v>8</v>
@@ -1224,7 +1486,7 @@
       </c>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -1234,7 +1496,7 @@
       <c r="G5" s="18"/>
       <c r="H5" s="18"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="3" t="s">
         <v>10</v>
@@ -1246,7 +1508,7 @@
       <c r="G6" s="22"/>
       <c r="H6" s="20"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="17"/>
       <c r="B7" s="23" t="s">
         <v>11</v>
@@ -1260,7 +1522,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="17"/>
       <c r="B8" s="18" t="s">
         <v>13</v>
@@ -1274,7 +1536,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="18"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="17"/>
       <c r="B9" s="18" t="s">
         <v>15</v>
@@ -1288,7 +1550,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="18"/>
     </row>
-    <row r="10" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
@@ -1298,7 +1560,7 @@
       <c r="G10" s="18"/>
       <c r="H10" s="18"/>
     </row>
-    <row r="11" spans="1:8" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25">
         <v>3</v>
       </c>
@@ -1324,7 +1586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="25.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:8" ht="25.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="31" t="s">
         <v>19</v>
       </c>
@@ -1350,7 +1612,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="41.65" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="36">
         <v>1</v>
       </c>
@@ -1370,7 +1632,7 @@
       </c>
       <c r="H13" s="39"/>
     </row>
-    <row r="14" spans="1:8" ht="41.65" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>2</v>
       </c>
@@ -1390,7 +1652,7 @@
       </c>
       <c r="H14" s="42"/>
     </row>
-    <row r="15" spans="1:8" ht="111" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>3</v>
       </c>
@@ -1406,21 +1668,11 @@
       </c>
       <c r="F15" s="41"/>
       <c r="G15" s="37" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="H15" s="42">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" s="40"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1429,6 +1681,187 @@
     <mergeCell ref="C2:C3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACEA99C1-E542-4B41-9CAB-3CAA3417949E}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="37.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="59"/>
+      <c r="D1" s="60"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="46">
+        <v>1</v>
+      </c>
+      <c r="C2" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="48"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="48" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="48"/>
+    </row>
+    <row r="7" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="48"/>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="48"/>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="48"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="48"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="48" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="289.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" s="62"/>
+      <c r="D12" s="63"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="59"/>
+      <c r="D13" s="60"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B13:D13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>